--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,79 +43,97 @@
     <t>evil</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>brilliant</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>love</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>wow</t>
   </si>
   <si>
     <t>social</t>
@@ -482,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,10 +508,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -572,16 +590,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -593,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -601,13 +619,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -619,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K4">
-        <v>0.9090909090909091</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -643,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -651,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9666666666666667</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -669,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.82</v>
       </c>
       <c r="L5">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -693,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -701,13 +719,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9393939393939394</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -719,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.84</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -743,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -751,13 +769,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -769,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K7">
         <v>0.6666666666666666</v>
@@ -801,13 +819,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -819,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.5666666666666667</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -843,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -851,13 +869,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8421052631578947</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -872,16 +890,16 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.5517241379310345</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -893,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -901,13 +919,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -919,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>0.5066666666666667</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -943,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -951,13 +969,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6470588235294118</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -969,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L11">
         <v>9</v>
@@ -993,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1001,13 +1019,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1019,31 +1037,31 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>14</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>17</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12">
-        <v>0.05373406193078324</v>
-      </c>
-      <c r="L12">
-        <v>59</v>
-      </c>
-      <c r="M12">
-        <v>59</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>1039</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1051,13 +1069,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.55</v>
+        <v>0.625</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1069,13 +1087,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.006336405529953917</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L13">
         <v>11</v>
@@ -1093,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1725</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1101,13 +1119,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5217391304347826</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1119,7 +1137,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>68</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1127,13 +1169,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4855072463768116</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C15">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1145,7 +1187,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>71</v>
+        <v>14</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15">
+        <v>0.06375227686703097</v>
+      </c>
+      <c r="L15">
+        <v>70</v>
+      </c>
+      <c r="M15">
+        <v>70</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1028</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1153,13 +1219,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4042553191489361</v>
+        <v>0.45</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1171,7 +1237,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16">
+        <v>0.00576036866359447</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1726</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1179,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3928571428571428</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1197,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1205,13 +1295,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3714285714285714</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1223,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1231,7 +1321,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2307692307692308</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -1249,7 +1339,59 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
